--- a/docs/PTA2_DDC_80/PTA2_DDC_80_12.08.24_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731782429.0282269</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731782432.4960716</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731782429.0282269.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731782432.4960716.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.63</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.21</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5799999999999841</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731782433.2014356</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731782437.2785664</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731782433.2014356.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731782437.2785664.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.25</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.71</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.4599999999999795</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731782438.3483303</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731782438.3483303.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731782438.3483303.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>279.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>279.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>280.15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.6499999999999773</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731782440.4177995</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731782443.2611926</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782440.4177995.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782443.2611926.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.63</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278.21</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.5799999999999841</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731782443.8127167</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731782447.054044</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782443.8127167.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782447.054044.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.25</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>278.71</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.4599999999999795</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731782447.8832796</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731782449.5490358</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782447.8832796.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782449.5490358.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>279.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>278.48</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.019999999999982</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731782449.5629706</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731782451.7705686</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782449.5629706.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782451.7705686.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>278.48</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.92</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731782452.2588747</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731782452.8831735</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782452.2588747.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782452.8831735.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.38</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278.89</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.5099999999999909</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731782453.8131678</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731782458.1719692</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782453.8131678.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782458.1719692.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>279.3</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>279.64</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.339999999999975</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -999,95 +1069,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731782459.2902212</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731782459.2902212.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731782459.2902212.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>280.6</v>
       </c>
-      <c r="J12" t="n">
-        <v>280.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>281.03</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.42999999999995</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731782461.3395615</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731782462.719034</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782461.3395615.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782462.719034.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>127.7</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>128.32</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.6199999999999903</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731782463.5129702</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731782465.1065395</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782463.5129702.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782465.1065395.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>127.45</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>127.74</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.289999999999992</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731782468.1512365</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731782469.006886</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782468.1512365.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782469.006886.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>127.89</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>127.84</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1199,95 +1293,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731782471.4904478</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731782471.4904478.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731782471.4904478.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>128.37</v>
       </c>
-      <c r="J16" t="n">
-        <v>128.37</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>128.91</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.539999999999992</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731782475.4311643</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731782477.8779106</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782475.4311643.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782477.8779106.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6352.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6346</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-6.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1295,51 +1401,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731782479.5621479</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731782482.800982</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782479.5621479.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782482.800982.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6349.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6372</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-22.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -1347,95 +1459,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731782483.167652</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731782483.167652.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731782483.167652.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6390.5</v>
       </c>
-      <c r="J19" t="n">
-        <v>6390.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>6429</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731782486.8849022</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731782489.5782433</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782486.8849022.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782489.5782433.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>497.6</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>497.45</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.1500000000000341</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1443,51 +1567,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731782491.2908132</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731782493.3974152</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782491.2908132.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782493.3974152.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>498.2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>498.3</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1495,95 +1625,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731782495.0681818</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731782495.0681818.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731782495.0681818.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>500.6</v>
       </c>
-      <c r="J22" t="n">
-        <v>500.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>501.85</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731782497.1946988</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731782499.0540936</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782497.1946988.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782499.0540936.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>224.22</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>224.66</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1591,51 +1733,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731782499.7203915</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731782500.3152146</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782499.7203915.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782500.3152146.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>224.08</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>224.43</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.3499999999999943</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1643,51 +1791,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731782500.4692955</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731782500.5702648</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782500.4692955.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782500.5702648.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>224.76</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>224.25</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.5099999999999909</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1695,51 +1849,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731782501.101674</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731782501.4426322</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782501.101674.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731782501.4426322.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>224.77</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>224.23</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.5400000000000205</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1747,95 +1907,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731782501.854104</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731782501.854104.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731782501.854104.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>225</v>
       </c>
-      <c r="J27" t="n">
-        <v>225</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>226.62</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-1.620000000000005</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731782512.608753</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731782515.4940555</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782512.608753.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782515.4940555.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1015</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1015.2</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1843,51 +2015,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731782516.2292914</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731782517.58998</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782516.2292914.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782517.58998.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1018.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1017.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1895,95 +2073,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731782518.0212247</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731782518.0212247.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731782518.0212247.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1021.8</v>
       </c>
-      <c r="J30" t="n">
-        <v>1021.8</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1030.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-8.799999999999955</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731782521.0385141</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731782522.8383236</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782521.0385141.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782522.8383236.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.911</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11.93</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.01900000000000013</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1991,51 +2181,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731782523.5492349</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731782523.8005164</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782523.5492349.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782523.8005164.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>11.909</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>11.918</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.008999999999998565</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2043,51 +2239,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731782524.183696</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731782528.569372</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782524.183696.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782528.569372.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>11.935</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>11.953</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.01799999999999891</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2095,51 +2297,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731782528.7243905</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731782529.214338</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782528.7243905.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731782529.214338.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>11.943</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>11.956</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.0129999999999999</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2147,95 +2355,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731782530.4730973</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731782530.4730973.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731782530.4730973.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>11.977</v>
       </c>
-      <c r="J35" t="n">
-        <v>11.977</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>12.009</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.03200000000000003</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731782532.2623134</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731782533.9785612</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782532.2623134.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782533.9785612.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>123.66</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>123.32</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2243,51 +2463,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731782534.7416987</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731782535.4617734</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782534.7416987.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782535.4617734.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>123.14</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>123.64</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.5</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2295,51 +2521,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731782537.517295</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731782538.7673721</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782537.517295.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782538.7673721.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>123.8</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>123.74</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2347,95 +2579,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731782539.9657233</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731782539.9657233.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731782539.9657233.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>124.08</v>
       </c>
-      <c r="J39" t="n">
-        <v>124.08</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.9200000000000017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731782543.8712535</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731782545.5058107</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782543.8712535.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782545.5058107.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>158.84</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>159.14</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.2999999999999829</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2443,139 +2687,157 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731782547.4147744</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731782547.4147744.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731782547.4147744.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>159.4</v>
       </c>
-      <c r="J41" t="n">
-        <v>159.4</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>162.3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-2.900000000000006</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731782557.4900024</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731782557.4900024.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731782557.4900024.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>49.27</v>
       </c>
-      <c r="J42" t="n">
-        <v>49.27</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>50.225</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.9549999999999983</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731782570.0238824</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731782570.3976185</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782570.0238824.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782570.3976185.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1371.4</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1373</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2583,51 +2845,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731782570.5790775</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731782571.7728763</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782570.5790775.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782571.7728763.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1371.2</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1372.8</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2635,95 +2903,107 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731782572.0089269</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731782572.0089269.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731782572.0089269.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1374.2</v>
       </c>
-      <c r="J45" t="n">
-        <v>1374.2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1387.6</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-13.39999999999986</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731782579.323347</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731782579.5883055</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782579.323347.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782579.5883055.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>60.76</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>60.94</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2731,51 +3011,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731782579.8634286</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731782580.732886</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782579.8634286.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782580.732886.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>60.5</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>60.92</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -2783,51 +3069,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731782583.8817205</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731782584.289323</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782583.8817205.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782584.289323.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>61.12</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>61</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2835,51 +3127,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731782584.8580282</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731782585.398557</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782584.8580282.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782585.398557.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>61.21</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>61.12</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2887,95 +3185,107 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731782588.5375342</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731782588.5375342.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731782588.5375342.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>61.45</v>
       </c>
-      <c r="J50" t="n">
-        <v>61.45</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>61.52</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731782590.475786</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731782591.0586667</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782590.475786.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782591.0586667.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>97.31</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>96.81999999999999</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.4900000000000091</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2983,51 +3293,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731782593.465097</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731782593.624583</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782593.465097.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782593.624583.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>97.34999999999999</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>96.94</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.4099999999999966</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -3035,51 +3351,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731782593.640542</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731782593.7033865</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782593.640542.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782593.7033865.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>96.94</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3087,51 +3409,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731782595.2135746</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731782598.4268394</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782595.2135746.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731782598.4268394.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>97.5</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>97.90000000000001</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.4000000000000057</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -3139,95 +3467,107 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731782599.3726337</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731782599.3726337.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731782599.3726337.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="J55" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>98.26000000000001</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731782600.8515742</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731782604.2280633</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782600.8515742.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782604.2280633.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>55.3</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>55.4</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -3235,51 +3575,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731782606.8310697</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731782608.7705014</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782606.8310697.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782608.7705014.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>55.41</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>55.5</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.09000000000000341</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3287,95 +3633,107 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731782609.5515003</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731782609.5515003.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731782609.5515003.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>55.74</v>
       </c>
-      <c r="J58" t="n">
-        <v>55.74</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>55.97</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.2299999999999969</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731782613.282167</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731782615.4360437</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782613.282167.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782615.4360437.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>149.54</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>150.2</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -3383,51 +3741,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731782616.852274</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731782617.041243</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782616.852274.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782617.041243.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>150.28</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>149.38</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -3435,51 +3799,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731782617.0562036</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731782617.6322954</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782617.0562036.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782617.6322954.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>149.38</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>149.54</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3487,95 +3857,107 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731782618.4780605</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731782618.4780605.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731782618.4780605.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>150.66</v>
       </c>
-      <c r="J62" t="n">
-        <v>150.66</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>153.52</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-2.860000000000014</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731782634.854991</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731782635.581767</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782634.854991.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782635.581767.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>19.79</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>19.856</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.0660000000000025</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -3583,51 +3965,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731782636.311797</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731782640.33446</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782636.311797.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731782640.33446.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>19.9</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>19.952</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.05200000000000315</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -3635,139 +4023,157 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731782642.298579</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731782642.298579.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731782642.298579.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>20.048</v>
       </c>
-      <c r="J65" t="n">
-        <v>20.048</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>20.035</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.01299999999999812</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731782650.2933733</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731782650.2933733.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731782650.2933733.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>668.5</v>
       </c>
-      <c r="J66" t="n">
-        <v>668.5</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>674.45</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-5.950000000000045</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731782655.7968528</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731782656.510307</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782655.7968528.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731782656.510307.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>148.74</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>150.1</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>1.359999999999985</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -3775,44 +4181,50 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731782661.6168973</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731782661.6168973.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731782661.6168973.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>149.8</v>
       </c>
-      <c r="J68" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>153.96</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-4.159999999999997</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-2.78</v>
       </c>
     </row>
   </sheetData>
@@ -3873,19 +4285,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.75</v>
+        <v>1.32000000000005</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0.1885714285714357</v>
       </c>
       <c r="E2" t="n">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3895,19 +4307,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02299999999999969</v>
+        <v>-0.009000000000000341</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004599999999999937</v>
+        <v>-0.001800000000000068</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="4">
@@ -3917,19 +4329,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6599999999999966</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1319999999999993</v>
+        <v>0.1599999999999994</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="F4" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -3939,19 +4351,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.840000000000003</v>
+        <v>0.2199999999999989</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3680000000000007</v>
+        <v>0.04399999999999978</v>
       </c>
       <c r="E5" t="n">
-        <v>0.83</v>
+        <v>0.11</v>
       </c>
       <c r="F5" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -3961,19 +4373,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8100000000000023</v>
+        <v>0.740000000000002</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1620000000000004</v>
+        <v>0.1480000000000004</v>
       </c>
       <c r="E6" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="F6" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -3983,19 +4395,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9599999999999795</v>
+        <v>0.4199999999999875</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2399999999999949</v>
+        <v>0.1049999999999969</v>
       </c>
       <c r="E7" t="n">
-        <v>0.76</v>
+        <v>0.34</v>
       </c>
       <c r="F7" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -4005,19 +4417,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9000000000000057</v>
+        <v>-0.01999999999999602</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2250000000000014</v>
+        <v>-0.004999999999999005</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7300000000000001</v>
+        <v>-0.009999999999999898</v>
       </c>
       <c r="F8" t="n">
-        <v>0.18</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -4027,19 +4439,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.719999999999999</v>
+        <v>-1.140000000000015</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4299999999999997</v>
+        <v>-0.2850000000000037</v>
       </c>
       <c r="E9" t="n">
-        <v>1.15</v>
+        <v>-0.75</v>
       </c>
       <c r="F9" t="n">
-        <v>0.29</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="10">
@@ -4049,19 +4461,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01399999999999935</v>
+        <v>0.02699999999999747</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004666666666666448</v>
+        <v>0.008999999999999156</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11">
@@ -4071,19 +4483,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00999999999999801</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00333333333333267</v>
+        <v>-0.07333333333333296</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01999999999999999</v>
+        <v>-0.39</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="12">
@@ -4093,19 +4505,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.199999999999818</v>
+        <v>-10.20000000000005</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1.066666666666606</v>
+        <v>-3.400000000000015</v>
       </c>
       <c r="E12" t="n">
-        <v>0.24</v>
+        <v>-0.74</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="13">
@@ -4115,19 +4527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-29</v>
+        <v>-67.5</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-9.666666666666666</v>
+        <v>-22.5</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.45</v>
+        <v>-1.05</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.15</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="14">
@@ -4137,19 +4549,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3999999999999773</v>
+        <v>-8.399999999999977</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1333333333333258</v>
+        <v>-2.799999999999992</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03999999999999999</v>
+        <v>-0.82</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="15">
@@ -4159,19 +4571,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2500000000000568</v>
+        <v>-1.500000000000057</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.08333333333335229</v>
+        <v>-0.500000000000019</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.05</v>
+        <v>-0.3</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="16">
@@ -4181,19 +4593,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1200000000000045</v>
+        <v>-0.5299999999999727</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04000000000000151</v>
+        <v>-0.1766666666666576</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04000000000000001</v>
+        <v>-0.19</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="17">
@@ -4203,19 +4615,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2999999999999829</v>
+        <v>-2.600000000000023</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1499999999999915</v>
+        <v>-1.300000000000011</v>
       </c>
       <c r="E17" t="n">
-        <v>0.19</v>
+        <v>-1.63</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="18">
@@ -4225,19 +4637,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.359999999999985</v>
+        <v>-2.800000000000011</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6799999999999926</v>
+        <v>-1.400000000000006</v>
       </c>
       <c r="E18" t="n">
-        <v>0.91</v>
+        <v>-1.87</v>
       </c>
       <c r="F18" t="n">
-        <v>0.46</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="19">
@@ -4247,19 +4659,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-5.950000000000045</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-5.950000000000045</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-0.89</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="20">
@@ -4269,19 +4681,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.9549999999999983</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.9549999999999983</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.94</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="21">
